--- a/ArchivoUsuariosExcel.xlsx
+++ b/ArchivoUsuariosExcel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -95,7 +95,7 @@
     <t>2222</t>
   </si>
   <si>
-    <t>Johana</t>
+    <t>Johana Y</t>
   </si>
   <si>
     <t>Guerrero</t>
@@ -135,6 +135,21 @@
   </si>
   <si>
     <t>Garcia</t>
+  </si>
+  <si>
+    <t>Ã±andu</t>
+  </si>
+  <si>
+    <t>Ã±aÃ±o</t>
+  </si>
+  <si>
+    <t>example@hotmail.com</t>
+  </si>
+  <si>
+    <t>Nahira</t>
+  </si>
+  <si>
+    <t>Ardiles</t>
   </si>
 </sst>
 </file>
@@ -165,22 +180,22 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="48"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="48"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="44"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -224,7 +239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -538,6 +553,52 @@
         <v>10</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n" s="2">
+        <v>49.0</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D14" t="n" s="2">
+        <v>21323.0</v>
+      </c>
+      <c r="E14" t="n" s="2">
+        <v>3232.0</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D15" t="n" s="2">
+        <v>9.76432456E8</v>
+      </c>
+      <c r="E15" t="n" s="2">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
